--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика)_Сафронова2.xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика)_Сафронова2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Рабочий стол\сценарии и результаты\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Рабочий стол\LoadRunner2-main\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Соответствие" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="120">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -559,22 +559,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1 143,</t>
-  </si>
-  <si>
-    <t>1 995,</t>
-  </si>
-  <si>
-    <t>1 591,</t>
-  </si>
-  <si>
-    <t>1 045,</t>
-  </si>
-  <si>
-    <t>1 170,</t>
-  </si>
-  <si>
     <t>Профиль для 10 пользавателей</t>
+  </si>
+  <si>
+    <t>1 142</t>
+  </si>
+  <si>
+    <t>1 992</t>
+  </si>
+  <si>
+    <t>1 592</t>
+  </si>
+  <si>
+    <t>1 273</t>
+  </si>
+  <si>
+    <t>1 143</t>
+  </si>
+  <si>
+    <t>1 047</t>
+  </si>
+  <si>
+    <t>1 171</t>
   </si>
 </sst>
 </file>
@@ -585,12 +591,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1512,73 +1526,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="136">
+  <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1650,46 +1678,46 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1700,22 +1728,22 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1724,7 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1758,52 +1786,55 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="94" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="94" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="94"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="94"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="108"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="108"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="94"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="94"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="42" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="122"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="94" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="94" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="122"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="136"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="136"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,7 +1851,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="136">
+  <cellStyles count="150">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
@@ -1828,6 +1859,7 @@
     <cellStyle name="20% — акцент1 5" xfId="96"/>
     <cellStyle name="20% — акцент1 6" xfId="110"/>
     <cellStyle name="20% — акцент1 7" xfId="124"/>
+    <cellStyle name="20% — акцент1 8" xfId="138"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
@@ -1835,6 +1867,7 @@
     <cellStyle name="20% — акцент2 5" xfId="98"/>
     <cellStyle name="20% — акцент2 6" xfId="112"/>
     <cellStyle name="20% — акцент2 7" xfId="126"/>
+    <cellStyle name="20% — акцент2 8" xfId="140"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
@@ -1842,6 +1875,7 @@
     <cellStyle name="20% — акцент3 5" xfId="100"/>
     <cellStyle name="20% — акцент3 6" xfId="114"/>
     <cellStyle name="20% — акцент3 7" xfId="128"/>
+    <cellStyle name="20% — акцент3 8" xfId="142"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
@@ -1849,6 +1883,7 @@
     <cellStyle name="20% — акцент4 5" xfId="102"/>
     <cellStyle name="20% — акцент4 6" xfId="116"/>
     <cellStyle name="20% — акцент4 7" xfId="130"/>
+    <cellStyle name="20% — акцент4 8" xfId="144"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
@@ -1856,6 +1891,7 @@
     <cellStyle name="20% — акцент5 5" xfId="104"/>
     <cellStyle name="20% — акцент5 6" xfId="118"/>
     <cellStyle name="20% — акцент5 7" xfId="132"/>
+    <cellStyle name="20% — акцент5 8" xfId="146"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
@@ -1863,6 +1899,7 @@
     <cellStyle name="20% — акцент6 5" xfId="106"/>
     <cellStyle name="20% — акцент6 6" xfId="120"/>
     <cellStyle name="20% — акцент6 7" xfId="134"/>
+    <cellStyle name="20% — акцент6 8" xfId="148"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
@@ -1870,6 +1907,7 @@
     <cellStyle name="40% — акцент1 5" xfId="97"/>
     <cellStyle name="40% — акцент1 6" xfId="111"/>
     <cellStyle name="40% — акцент1 7" xfId="125"/>
+    <cellStyle name="40% — акцент1 8" xfId="139"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
@@ -1877,6 +1915,7 @@
     <cellStyle name="40% — акцент2 5" xfId="99"/>
     <cellStyle name="40% — акцент2 6" xfId="113"/>
     <cellStyle name="40% — акцент2 7" xfId="127"/>
+    <cellStyle name="40% — акцент2 8" xfId="141"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
@@ -1884,6 +1923,7 @@
     <cellStyle name="40% — акцент3 5" xfId="101"/>
     <cellStyle name="40% — акцент3 6" xfId="115"/>
     <cellStyle name="40% — акцент3 7" xfId="129"/>
+    <cellStyle name="40% — акцент3 8" xfId="143"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
@@ -1891,6 +1931,7 @@
     <cellStyle name="40% — акцент4 5" xfId="103"/>
     <cellStyle name="40% — акцент4 6" xfId="117"/>
     <cellStyle name="40% — акцент4 7" xfId="131"/>
+    <cellStyle name="40% — акцент4 8" xfId="145"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
@@ -1898,6 +1939,7 @@
     <cellStyle name="40% — акцент5 5" xfId="105"/>
     <cellStyle name="40% — акцент5 6" xfId="119"/>
     <cellStyle name="40% — акцент5 7" xfId="133"/>
+    <cellStyle name="40% — акцент5 8" xfId="147"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
@@ -1905,6 +1947,7 @@
     <cellStyle name="40% — акцент6 5" xfId="107"/>
     <cellStyle name="40% — акцент6 6" xfId="121"/>
     <cellStyle name="40% — акцент6 7" xfId="135"/>
+    <cellStyle name="40% — акцент6 8" xfId="149"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1936,6 +1979,7 @@
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Нейтральный 2" xfId="46"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 10" xfId="136"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
     <cellStyle name="Обычный 4" xfId="45"/>
@@ -1953,96 +1997,13 @@
     <cellStyle name="Примечание 6" xfId="95"/>
     <cellStyle name="Примечание 7" xfId="109"/>
     <cellStyle name="Примечание 8" xfId="123"/>
+    <cellStyle name="Примечание 9" xfId="137"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2158,7 +2119,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ann Safronova" refreshedDate="45088.62092627315" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="33">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ann Safronova" refreshedDate="45088.782984375001" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="33">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H34" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2786,7 +2747,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2867,25 +2828,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="34">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2899,7 +2860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I60:J70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2965,21 +2926,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="40">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2988,7 +2949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2997,7 +2958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3006,7 +2967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3290,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3425,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A8" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3614,65 +3575,129 @@
       <c r="L13" s="78"/>
       <c r="M13" s="80"/>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="85">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D15" s="85">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E15" s="85">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F15" s="85">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="85">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H15" s="85">
+        <v>25</v>
+      </c>
+      <c r="I15" s="85">
+        <v>0</v>
+      </c>
+      <c r="J15" s="85">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="85" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="85">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D16" s="85">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E16" s="85">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F16" s="85">
+        <v>0</v>
+      </c>
+      <c r="G16" s="85">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H16" s="85">
         <v>25</v>
       </c>
-      <c r="I16" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>27</v>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="85">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="85" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B17" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="85">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D17" s="85">
-        <v>5.2999999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="85">
-        <v>7.2999999999999995E-2</v>
+        <v>0.129</v>
       </c>
       <c r="F17" s="85">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G17" s="85">
-        <v>6.3E-2</v>
+        <v>0.121</v>
       </c>
       <c r="H17" s="85">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I17" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="85">
         <v>0</v>
@@ -3686,25 +3711,25 @@
         <v>80</v>
       </c>
       <c r="C18" s="85">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D18" s="85">
-        <v>5.2999999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="85">
-        <v>7.2999999999999995E-2</v>
+        <v>0.129</v>
       </c>
       <c r="F18" s="85">
         <v>0</v>
       </c>
       <c r="G18" s="85">
-        <v>6.3E-2</v>
+        <v>0.121</v>
       </c>
       <c r="H18" s="85">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I18" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="85">
         <v>0</v>
@@ -3712,31 +3737,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="85" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="85">
-        <v>8.2000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D19" s="85">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="85">
-        <v>0.129</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F19" s="85">
-        <v>1.2E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G19" s="85">
-        <v>0.121</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H19" s="85">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="I19" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="85">
         <v>0</v>
@@ -3750,25 +3775,25 @@
         <v>80</v>
       </c>
       <c r="C20" s="85">
-        <v>8.2000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D20" s="85">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E20" s="85">
-        <v>0.129</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F20" s="85">
         <v>0</v>
       </c>
       <c r="G20" s="85">
-        <v>0.121</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H20" s="85">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="I20" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="85">
         <v>0</v>
@@ -3776,28 +3801,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="85">
-        <v>7.5999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D21" s="85">
-        <v>0.09</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E21" s="85">
-        <v>0.14199999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F21" s="85">
-        <v>1.7999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G21" s="85">
-        <v>0.11799999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H21" s="85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="85">
         <v>0</v>
@@ -3814,22 +3839,22 @@
         <v>80</v>
       </c>
       <c r="C22" s="85">
-        <v>7.5999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D22" s="85">
-        <v>0.09</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E22" s="85">
-        <v>0.14199999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F22" s="85">
         <v>0</v>
       </c>
       <c r="G22" s="85">
-        <v>0.11799999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H22" s="85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="85">
         <v>0</v>
@@ -3840,28 +3865,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="85" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B23" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="85">
-        <v>3.3000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D23" s="85">
-        <v>3.6999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E23" s="85">
-        <v>4.5999999999999999E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F23" s="85">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G23" s="85">
-        <v>4.1000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H23" s="85">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I23" s="85">
         <v>0</v>
@@ -3878,22 +3903,22 @@
         <v>80</v>
       </c>
       <c r="C24" s="85">
-        <v>3.3000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D24" s="85">
-        <v>3.6999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E24" s="85">
-        <v>4.5999999999999999E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F24" s="85">
         <v>0</v>
       </c>
       <c r="G24" s="85">
-        <v>4.1000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H24" s="85">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I24" s="85">
         <v>0</v>
@@ -3904,28 +3929,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="85" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B25" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="85">
-        <v>5.8999999999999997E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D25" s="85">
-        <v>7.0000000000000007E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E25" s="85">
-        <v>0.11899999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F25" s="85">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G25" s="85">
-        <v>7.8E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H25" s="85">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I25" s="85">
         <v>0</v>
@@ -3942,22 +3967,22 @@
         <v>80</v>
       </c>
       <c r="C26" s="85">
-        <v>5.8999999999999997E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D26" s="85">
-        <v>7.0000000000000007E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E26" s="85">
-        <v>0.11899999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F26" s="85">
         <v>0</v>
       </c>
       <c r="G26" s="85">
-        <v>7.8E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H26" s="85">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I26" s="85">
         <v>0</v>
@@ -3968,28 +3993,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="85">
-        <v>7.9000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D27" s="85">
-        <v>9.1999999999999998E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E27" s="85">
-        <v>0.29699999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F27" s="85">
-        <v>2.1999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G27" s="85">
-        <v>0.11799999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H27" s="85">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="I27" s="85">
         <v>0</v>
@@ -4006,22 +4031,22 @@
         <v>80</v>
       </c>
       <c r="C28" s="85">
-        <v>7.9000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D28" s="85">
-        <v>9.1999999999999998E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E28" s="85">
-        <v>0.29699999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F28" s="85">
         <v>0</v>
       </c>
       <c r="G28" s="85">
-        <v>0.11799999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H28" s="85">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="I28" s="85">
         <v>0</v>
@@ -4032,28 +4057,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="85" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B29" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="85">
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D29" s="85">
-        <v>6.6000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E29" s="85">
-        <v>8.8999999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F29" s="85">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" s="85">
-        <v>7.1999999999999995E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H29" s="85">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I29" s="85">
         <v>0</v>
@@ -4070,22 +4095,22 @@
         <v>80</v>
       </c>
       <c r="C30" s="85">
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D30" s="85">
-        <v>6.6000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E30" s="85">
-        <v>8.8999999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F30" s="85">
         <v>0</v>
       </c>
       <c r="G30" s="85">
-        <v>7.1999999999999995E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H30" s="85">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I30" s="85">
         <v>0</v>
@@ -4096,28 +4121,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="85" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B31" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="85">
-        <v>3.2000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D31" s="85">
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E31" s="85">
-        <v>5.8999999999999997E-2</v>
+        <v>0.109</v>
       </c>
       <c r="F31" s="85">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G31" s="85">
-        <v>4.2000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H31" s="85">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I31" s="85">
         <v>0</v>
@@ -4134,22 +4159,22 @@
         <v>80</v>
       </c>
       <c r="C32" s="85">
-        <v>3.2000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D32" s="85">
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E32" s="85">
-        <v>5.8999999999999997E-2</v>
+        <v>0.109</v>
       </c>
       <c r="F32" s="85">
         <v>0</v>
       </c>
       <c r="G32" s="85">
-        <v>4.2000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H32" s="85">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I32" s="85">
         <v>0</v>
@@ -4160,28 +4185,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="85">
-        <v>3.9E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D33" s="85">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E33" s="85">
-        <v>0.109</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F33" s="85">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G33" s="85">
-        <v>5.5E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H33" s="85">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I33" s="85">
         <v>0</v>
@@ -4198,22 +4223,22 @@
         <v>80</v>
       </c>
       <c r="C34" s="85">
-        <v>3.9E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D34" s="85">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E34" s="85">
-        <v>0.109</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F34" s="85">
         <v>0</v>
       </c>
       <c r="G34" s="85">
-        <v>5.5E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H34" s="85">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I34" s="85">
         <v>0</v>
@@ -4224,28 +4249,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="85" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B35" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="85">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D35" s="85">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E35" s="85">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F35" s="85">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G35" s="85">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H35" s="85">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I35" s="85">
         <v>0</v>
@@ -4262,22 +4287,22 @@
         <v>80</v>
       </c>
       <c r="C36" s="85">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D36" s="85">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E36" s="85">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F36" s="85">
         <v>0</v>
       </c>
       <c r="G36" s="85">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H36" s="85">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I36" s="85">
         <v>0</v>
@@ -4288,28 +4313,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="85" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B37" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="85">
-        <v>3.5999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D37" s="85">
-        <v>4.2999999999999997E-2</v>
+        <v>0.113</v>
       </c>
       <c r="E37" s="85">
-        <v>6.8000000000000005E-2</v>
+        <v>0.152</v>
       </c>
       <c r="F37" s="85">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G37" s="85">
-        <v>4.9000000000000002E-2</v>
+        <v>0.127</v>
       </c>
       <c r="H37" s="85">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I37" s="85">
         <v>0</v>
@@ -4326,22 +4351,22 @@
         <v>80</v>
       </c>
       <c r="C38" s="85">
-        <v>3.5999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D38" s="85">
-        <v>4.2999999999999997E-2</v>
+        <v>0.113</v>
       </c>
       <c r="E38" s="85">
-        <v>6.8000000000000005E-2</v>
+        <v>0.152</v>
       </c>
       <c r="F38" s="85">
         <v>0</v>
       </c>
       <c r="G38" s="85">
-        <v>4.9000000000000002E-2</v>
+        <v>0.127</v>
       </c>
       <c r="H38" s="85">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I38" s="85">
         <v>0</v>
@@ -4352,67 +4377,29 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="85">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D39" s="85">
-        <v>0.113</v>
-      </c>
-      <c r="E39" s="85">
-        <v>0.152</v>
-      </c>
-      <c r="F39" s="85">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G39" s="85">
-        <v>0.127</v>
-      </c>
-      <c r="H39" s="85">
-        <v>97</v>
-      </c>
-      <c r="I39" s="85">
-        <v>0</v>
-      </c>
-      <c r="J39" s="85">
-        <v>0</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="85">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D40" s="85">
-        <v>0.113</v>
-      </c>
-      <c r="E40" s="85">
-        <v>0.152</v>
-      </c>
-      <c r="F40" s="85">
-        <v>0</v>
-      </c>
-      <c r="G40" s="85">
-        <v>0.127</v>
-      </c>
-      <c r="H40" s="85">
-        <v>97</v>
-      </c>
-      <c r="I40" s="85">
-        <v>0</v>
-      </c>
-      <c r="J40" s="85">
-        <v>0</v>
-      </c>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="85" t="s">
@@ -4617,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A29" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4632,7 +4619,7 @@
     <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="45.7265625" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" customWidth="1"/>
     <col min="11" max="11" width="18.1796875" customWidth="1"/>
     <col min="12" max="12" width="26.7265625" customWidth="1"/>
     <col min="13" max="13" width="35.1796875" bestFit="1" customWidth="1"/>
@@ -6050,14 +6037,14 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95" t="s">
+      <c r="B38" s="97"/>
+      <c r="C38" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="99"/>
     </row>
     <row r="39" spans="1:9" ht="74" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
@@ -6124,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="71">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C41" s="73">
         <f t="shared" ref="C41:C51" si="19">GETPIVOTDATA("Итого",$I$1,"transaction rq",A41)*3</f>
@@ -6132,7 +6119,7 @@
       </c>
       <c r="D41" s="21">
         <f>1-B41/C41</f>
-        <v>-5.3218734236156973E-2</v>
+        <v>-5.0711070583213669E-2</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="76" t="str">
@@ -6376,11 +6363,11 @@
       </c>
       <c r="H48" s="24">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I48" s="22">
         <f t="shared" si="18"/>
-        <v>-0.36229727719089411</v>
+        <v>-4.1756741381272056E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36" x14ac:dyDescent="0.35">
@@ -6488,7 +6475,7 @@
       </c>
       <c r="B52" s="72">
         <f>SUM(B40:B51)</f>
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C52" s="74">
         <f>SUM(C40:C51)</f>
@@ -6496,7 +6483,7 @@
       </c>
       <c r="D52" s="21">
         <f t="shared" si="20"/>
-        <v>-2.143948977440413E-3</v>
+        <v>-1.8033154121863681E-3</v>
       </c>
       <c r="I52" s="35"/>
     </row>
@@ -7560,10 +7547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:Z62"/>
+  <dimension ref="C6:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="67" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="66" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7585,170 +7572,90 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+    </row>
+    <row r="9" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="E9" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="M10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N10" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O10" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P10" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q10" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R10" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S10" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="92" t="s">
+      <c r="T10" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="92" t="s">
+      <c r="U10" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="92" t="s">
+      <c r="V10" s="95" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="M7" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="92">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P7" s="92">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="Q7" s="92">
-        <v>0.624</v>
-      </c>
-      <c r="R7" s="92">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="92">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="T7" s="92">
-        <v>307</v>
-      </c>
-      <c r="U7" s="92">
-        <v>0</v>
-      </c>
-      <c r="V7" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="M8" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="92">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P8" s="92">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="Q8" s="92">
-        <v>0.624</v>
-      </c>
-      <c r="R8" s="92">
-        <v>0</v>
-      </c>
-      <c r="S8" s="92">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="T8" s="92">
-        <v>307</v>
-      </c>
-      <c r="U8" s="92">
-        <v>0</v>
-      </c>
-      <c r="V8" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="E9" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="M9" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="92">
-        <v>7.8E-2</v>
-      </c>
-      <c r="P9" s="92">
-        <v>0.159</v>
-      </c>
-      <c r="Q9" s="92">
-        <v>2.9460000000000002</v>
-      </c>
-      <c r="R9" s="92">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="S9" s="92">
-        <v>0.129</v>
-      </c>
-      <c r="T9" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" s="92">
-        <v>0</v>
-      </c>
-      <c r="V9" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="M10" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="92">
-        <v>7.8E-2</v>
-      </c>
-      <c r="P10" s="92">
-        <v>0.159</v>
-      </c>
-      <c r="Q10" s="92">
-        <v>2.9460000000000002</v>
-      </c>
-      <c r="R10" s="92">
-        <v>0</v>
-      </c>
-      <c r="S10" s="92">
-        <v>0.129</v>
-      </c>
-      <c r="T10" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="U10" s="92">
-        <v>0</v>
-      </c>
-      <c r="V10" s="92">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:22" ht="28" x14ac:dyDescent="0.35">
@@ -7767,34 +7674,34 @@
       <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="92" t="s">
+      <c r="M11" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="92">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="P11" s="92">
-        <v>0.158</v>
-      </c>
-      <c r="Q11" s="92">
-        <v>1.8</v>
-      </c>
-      <c r="R11" s="92">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="S11" s="92">
-        <v>0.309</v>
-      </c>
-      <c r="T11" s="92">
-        <v>401</v>
-      </c>
-      <c r="U11" s="92">
-        <v>0</v>
-      </c>
-      <c r="V11" s="92">
+      <c r="O11" s="95">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P11" s="95">
+        <v>0.154</v>
+      </c>
+      <c r="Q11" s="95">
+        <v>1.411</v>
+      </c>
+      <c r="R11" s="95">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="S11" s="95">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="T11" s="95">
+        <v>307</v>
+      </c>
+      <c r="U11" s="95">
+        <v>0</v>
+      </c>
+      <c r="V11" s="95">
         <v>0</v>
       </c>
     </row>
@@ -7816,34 +7723,34 @@
         <f>1-G12/H12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="92" t="s">
+      <c r="M12" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="92">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="P12" s="92">
-        <v>0.158</v>
-      </c>
-      <c r="Q12" s="92">
-        <v>1.8</v>
-      </c>
-      <c r="R12" s="92">
-        <v>0</v>
-      </c>
-      <c r="S12" s="92">
-        <v>0.309</v>
-      </c>
-      <c r="T12" s="92">
-        <v>401</v>
-      </c>
-      <c r="U12" s="92">
-        <v>0</v>
-      </c>
-      <c r="V12" s="92">
+      <c r="O12" s="95">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="P12" s="95">
+        <v>0.185</v>
+      </c>
+      <c r="Q12" s="95">
+        <v>2.512</v>
+      </c>
+      <c r="R12" s="95">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S12" s="95">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="T12" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="U12" s="95">
+        <v>0</v>
+      </c>
+      <c r="V12" s="95">
         <v>0</v>
       </c>
     </row>
@@ -7865,34 +7772,34 @@
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
         <v>-2.5089605734766929E-2</v>
       </c>
-      <c r="M13" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="92" t="s">
+      <c r="M13" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="P13" s="92">
-        <v>0.04</v>
-      </c>
-      <c r="Q13" s="92">
-        <v>0.628</v>
-      </c>
-      <c r="R13" s="92">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="S13" s="92">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T13" s="92">
+      <c r="O13" s="95">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P13" s="95">
+        <v>0.184</v>
+      </c>
+      <c r="Q13" s="95">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="R13" s="95">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="S13" s="95">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T13" s="95">
         <v>400</v>
       </c>
-      <c r="U13" s="92">
-        <v>0</v>
-      </c>
-      <c r="V13" s="92">
+      <c r="U13" s="95">
+        <v>0</v>
+      </c>
+      <c r="V13" s="95">
         <v>0</v>
       </c>
     </row>
@@ -7914,34 +7821,34 @@
         <f t="shared" si="0"/>
         <v>-2.7450980392156765E-2</v>
       </c>
-      <c r="M14" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="92" t="s">
+      <c r="M14" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="P14" s="92">
-        <v>0.04</v>
-      </c>
-      <c r="Q14" s="92">
-        <v>0.628</v>
-      </c>
-      <c r="R14" s="92">
-        <v>0</v>
-      </c>
-      <c r="S14" s="92">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T14" s="92">
-        <v>400</v>
-      </c>
-      <c r="U14" s="92">
-        <v>0</v>
-      </c>
-      <c r="V14" s="92">
+      <c r="O14" s="95">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P14" s="95">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Q14" s="95">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="R14" s="95">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S14" s="95">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T14" s="95">
+        <v>399</v>
+      </c>
+      <c r="U14" s="95">
+        <v>0</v>
+      </c>
+      <c r="V14" s="95">
         <v>0</v>
       </c>
     </row>
@@ -7949,7 +7856,7 @@
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="88" t="s">
         <v>108</v>
       </c>
       <c r="G15" s="4">
@@ -7963,34 +7870,34 @@
         <f t="shared" si="0"/>
         <v>-1.6949152542372836E-2</v>
       </c>
-      <c r="M15" s="92" t="s">
+      <c r="M15" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="92" t="s">
+      <c r="N15" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="92">
-        <v>0.06</v>
-      </c>
-      <c r="P15" s="92">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="Q15" s="92">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="R15" s="92">
-        <v>0.245</v>
-      </c>
-      <c r="S15" s="92">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="T15" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="92">
-        <v>0</v>
-      </c>
-      <c r="V15" s="92">
+      <c r="O15" s="95">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P15" s="95">
+        <v>0.127</v>
+      </c>
+      <c r="Q15" s="95">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="R15" s="95">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="S15" s="95">
+        <v>0.157</v>
+      </c>
+      <c r="T15" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15" s="95">
+        <v>0</v>
+      </c>
+      <c r="V15" s="95">
         <v>0</v>
       </c>
     </row>
@@ -8012,34 +7919,34 @@
         <f t="shared" si="0"/>
         <v>-6.8728522336769515E-3</v>
       </c>
-      <c r="M16" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="92" t="s">
+      <c r="M16" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="92">
-        <v>0.06</v>
-      </c>
-      <c r="P16" s="92">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="Q16" s="92">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="R16" s="92">
-        <v>0</v>
-      </c>
-      <c r="S16" s="92">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="T16" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="U16" s="92">
-        <v>0</v>
-      </c>
-      <c r="V16" s="92">
+      <c r="O16" s="95">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P16" s="95">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q16" s="95">
+        <v>2.524</v>
+      </c>
+      <c r="R16" s="95">
+        <v>0.311</v>
+      </c>
+      <c r="S16" s="95">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16" s="95">
+        <v>1</v>
+      </c>
+      <c r="V16" s="95">
         <v>0</v>
       </c>
     </row>
@@ -8061,34 +7968,34 @@
         <f t="shared" si="0"/>
         <v>-2.6666666666666616E-2</v>
       </c>
-      <c r="M17" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="92" t="s">
+      <c r="M17" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="92">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="P17" s="92">
-        <v>0.158</v>
-      </c>
-      <c r="Q17" s="92">
-        <v>2.81</v>
-      </c>
-      <c r="R17" s="92">
-        <v>0.253</v>
-      </c>
-      <c r="S17" s="92">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="T17" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="U17" s="92">
-        <v>1</v>
-      </c>
-      <c r="V17" s="92">
+      <c r="O17" s="95">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P17" s="95">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q17" s="95">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="R17" s="95">
+        <v>0.247</v>
+      </c>
+      <c r="S17" s="95">
+        <v>0.12</v>
+      </c>
+      <c r="T17" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="95">
+        <v>0</v>
+      </c>
+      <c r="V17" s="95">
         <v>0</v>
       </c>
     </row>
@@ -8110,235 +8017,197 @@
         <f t="shared" si="0"/>
         <v>-4.2483660130719025E-2</v>
       </c>
-      <c r="M18" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="92" t="s">
+      <c r="M18" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="92">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="P18" s="92">
-        <v>0.158</v>
-      </c>
-      <c r="Q18" s="92">
-        <v>2.81</v>
-      </c>
-      <c r="R18" s="92">
-        <v>0</v>
-      </c>
-      <c r="S18" s="92">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="T18" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="U18" s="92">
-        <v>1</v>
-      </c>
-      <c r="V18" s="92">
+      <c r="O18" s="95">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P18" s="95">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q18" s="95">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="R18" s="95">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S18" s="95">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T18" s="95">
+        <v>400</v>
+      </c>
+      <c r="U18" s="95">
+        <v>0</v>
+      </c>
+      <c r="V18" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="M19" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="92" t="s">
+      <c r="M19" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="95">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P19" s="95">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Q19" s="95">
+        <v>1.708</v>
+      </c>
+      <c r="R19" s="95">
+        <v>0.161</v>
+      </c>
+      <c r="S19" s="95">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T19" s="95">
+        <v>720</v>
+      </c>
+      <c r="U19" s="95">
+        <v>0</v>
+      </c>
+      <c r="V19" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="M20" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="95">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P20" s="95">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q20" s="95">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="R20" s="95">
+        <v>0.106</v>
+      </c>
+      <c r="S20" s="95">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="P19" s="92">
-        <v>0.114</v>
-      </c>
-      <c r="Q19" s="92">
-        <v>2.347</v>
-      </c>
-      <c r="R19" s="92">
-        <v>0.217</v>
-      </c>
-      <c r="S19" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="T19" s="92">
-        <v>948</v>
-      </c>
-      <c r="U19" s="92">
-        <v>0</v>
-      </c>
-      <c r="V19" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="M20" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="92" t="s">
+      <c r="T20" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="U20" s="95">
+        <v>0</v>
+      </c>
+      <c r="V20" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="M21" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="92">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="P20" s="92">
-        <v>0.114</v>
-      </c>
-      <c r="Q20" s="92">
-        <v>2.347</v>
-      </c>
-      <c r="R20" s="92">
-        <v>0</v>
-      </c>
-      <c r="S20" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="T20" s="92">
-        <v>948</v>
-      </c>
-      <c r="U20" s="92">
-        <v>0</v>
-      </c>
-      <c r="V20" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="M21" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="92" t="s">
+      <c r="O21" s="95">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P21" s="95">
+        <v>0.04</v>
+      </c>
+      <c r="Q21" s="95">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R21" s="95">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S21" s="95">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T21" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="95">
+        <v>0</v>
+      </c>
+      <c r="V21" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:26" x14ac:dyDescent="0.35">
+      <c r="M22" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="P21" s="92">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="Q21" s="92">
-        <v>2.2810000000000001</v>
-      </c>
-      <c r="R21" s="92">
-        <v>0.155</v>
-      </c>
-      <c r="S21" s="92">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="T21" s="92">
-        <v>400</v>
-      </c>
-      <c r="U21" s="92">
-        <v>0</v>
-      </c>
-      <c r="V21" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="M22" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="P22" s="92">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="Q22" s="92">
-        <v>2.2810000000000001</v>
-      </c>
-      <c r="R22" s="92">
-        <v>0</v>
-      </c>
-      <c r="S22" s="92">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="T22" s="92">
-        <v>400</v>
-      </c>
-      <c r="U22" s="92">
-        <v>0</v>
-      </c>
-      <c r="V22" s="92">
+      <c r="O22" s="95">
+        <v>0.108</v>
+      </c>
+      <c r="P22" s="95">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="Q22" s="95">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="R22" s="95">
+        <v>0.27</v>
+      </c>
+      <c r="S22" s="95">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="T22" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="U22" s="95">
+        <v>0</v>
+      </c>
+      <c r="V22" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="M23" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="92">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P23" s="92">
-        <v>0.09</v>
-      </c>
-      <c r="Q23" s="92">
-        <v>1.994</v>
-      </c>
-      <c r="R23" s="92">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="S23" s="92">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="T23" s="92">
-        <v>719</v>
-      </c>
-      <c r="U23" s="92">
-        <v>0</v>
-      </c>
-      <c r="V23" s="92">
-        <v>0</v>
-      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="M23" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
     </row>
     <row r="24" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="M24" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="92">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P24" s="92">
-        <v>0.09</v>
-      </c>
-      <c r="Q24" s="92">
-        <v>1.994</v>
-      </c>
-      <c r="R24" s="92">
-        <v>0</v>
-      </c>
-      <c r="S24" s="92">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="T24" s="92">
-        <v>719</v>
-      </c>
-      <c r="U24" s="92">
-        <v>0</v>
-      </c>
-      <c r="V24" s="92">
-        <v>0</v>
-      </c>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
       <c r="X24" s="83"/>
       <c r="Y24" s="83"/>
       <c r="Z24" s="83"/>
@@ -8359,36 +8228,16 @@
       <c r="I25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" s="92">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P25" s="92">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="Q25" s="92">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="R25" s="92">
-        <v>0.127</v>
-      </c>
-      <c r="S25" s="92">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T25" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="U25" s="92">
-        <v>0</v>
-      </c>
-      <c r="V25" s="92">
-        <v>0</v>
-      </c>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
       <c r="X25" s="83"/>
       <c r="Y25" s="83"/>
       <c r="Z25" s="83"/>
@@ -8412,36 +8261,16 @@
         <f>1-G26/H26</f>
         <v>-3.7735849056603765E-3</v>
       </c>
-      <c r="M26" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="92">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P26" s="92">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="Q26" s="92">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="R26" s="92">
-        <v>0</v>
-      </c>
-      <c r="S26" s="92">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T26" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="U26" s="92">
-        <v>0</v>
-      </c>
-      <c r="V26" s="92">
-        <v>0</v>
-      </c>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
       <c r="X26" s="83"/>
       <c r="Y26" s="83"/>
       <c r="Z26" s="83"/>
@@ -8458,43 +8287,23 @@
         <v>1144</v>
       </c>
       <c r="H27" s="9">
-        <f>379*3</f>
-        <v>1137</v>
+        <f>380*3</f>
+        <v>1140</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
-        <v>-6.1565523306947867E-3</v>
-      </c>
-      <c r="M27" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="92">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P27" s="92">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q27" s="92">
-        <v>6.2E-2</v>
-      </c>
-      <c r="R27" s="92">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S27" s="92">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T27" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="92">
-        <v>0</v>
-      </c>
-      <c r="V27" s="92">
-        <v>0</v>
-      </c>
+        <v>-3.5087719298245723E-3</v>
+      </c>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
       <c r="W27" s="83"/>
       <c r="X27" s="83"/>
       <c r="Y27" s="83"/>
@@ -8512,43 +8321,23 @@
         <v>1048</v>
       </c>
       <c r="H28" s="9">
-        <f>347*3</f>
-        <v>1041</v>
+        <f>349*3</f>
+        <v>1047</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="2"/>
-        <v>-6.7243035542747798E-3</v>
-      </c>
-      <c r="M28" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="92">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P28" s="92">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q28" s="92">
-        <v>6.2E-2</v>
-      </c>
-      <c r="R28" s="92">
-        <v>0</v>
-      </c>
-      <c r="S28" s="92">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T28" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="U28" s="92">
-        <v>0</v>
-      </c>
-      <c r="V28" s="92">
-        <v>0</v>
-      </c>
+        <v>-9.5510983763125168E-4</v>
+      </c>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
       <c r="W28" s="83"/>
       <c r="X28" s="83"/>
       <c r="Y28" s="83"/>
@@ -8558,7 +8347,7 @@
       <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="88" t="s">
         <v>108</v>
       </c>
       <c r="G29" s="10">
@@ -8566,43 +8355,23 @@
         <v>720</v>
       </c>
       <c r="H29" s="9">
-        <f>238*3</f>
-        <v>714</v>
+        <f>240*3</f>
+        <v>720</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>-8.4033613445377853E-3</v>
-      </c>
-      <c r="M29" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="92">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="P29" s="92">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="Q29" s="92">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="R29" s="92">
-        <v>0.219</v>
-      </c>
-      <c r="S29" s="92">
-        <v>0.159</v>
-      </c>
-      <c r="T29" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="U29" s="92">
-        <v>0</v>
-      </c>
-      <c r="V29" s="92">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
       <c r="W29" s="83"/>
       <c r="X29" s="83"/>
       <c r="Y29" s="83"/>
@@ -8620,43 +8389,23 @@
         <v>1172</v>
       </c>
       <c r="H30" s="9">
-        <f>3*388</f>
-        <v>1164</v>
+        <f>3*392</f>
+        <v>1176</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="2"/>
-        <v>-6.8728522336769515E-3</v>
-      </c>
-      <c r="M30" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" s="92">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="P30" s="92">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="Q30" s="92">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="R30" s="92">
-        <v>0</v>
-      </c>
-      <c r="S30" s="92">
-        <v>0.159</v>
-      </c>
-      <c r="T30" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="U30" s="92">
-        <v>0</v>
-      </c>
-      <c r="V30" s="92">
-        <v>0</v>
-      </c>
+        <v>3.4013605442176909E-3</v>
+      </c>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
       <c r="W30" s="83"/>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
@@ -8674,12 +8423,12 @@
         <v>308</v>
       </c>
       <c r="H31" s="9">
-        <f>102*3</f>
-        <v>306</v>
+        <f>101*3</f>
+        <v>303</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="2"/>
-        <v>-6.5359477124182774E-3</v>
+        <v>-1.650165016501659E-2</v>
       </c>
       <c r="Q31" s="83"/>
       <c r="R31" s="83"/>
@@ -8703,15 +8452,17 @@
         <f t="shared" si="1"/>
         <v>1276</v>
       </c>
-      <c r="H32" s="88">
-        <f>306*4</f>
-        <v>1224</v>
-      </c>
-      <c r="I32" s="89">
+      <c r="H32" s="92">
+        <f>425*3</f>
+        <v>1275</v>
+      </c>
+      <c r="I32" s="91">
         <f t="shared" si="2"/>
-        <v>-4.2483660130719025E-2</v>
+        <v>-7.8431372549014888E-4</v>
       </c>
       <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
@@ -8748,13 +8499,13 @@
       <c r="Z34" s="83"/>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
       <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
       <c r="S35" s="83"/>
@@ -8820,12 +8571,12 @@
         <f>4*G12</f>
         <v>1596</v>
       </c>
-      <c r="H38" s="92">
-        <v>1591</v>
+      <c r="H38" s="95">
+        <v>1592</v>
       </c>
       <c r="I38" s="11">
         <f>1-G38/H38</f>
-        <v>-3.14267756128217E-3</v>
+        <v>-2.5125628140703071E-3</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -8887,11 +8638,11 @@
         <v>1048</v>
       </c>
       <c r="H40" s="82">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" si="4"/>
-        <v>-2.870813397129135E-3</v>
+        <v>-9.5510983763125168E-4</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -8912,7 +8663,7 @@
       <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="92" t="s">
+      <c r="F41" s="88" t="s">
         <v>108</v>
       </c>
       <c r="G41" s="10">
@@ -8920,11 +8671,11 @@
         <v>720</v>
       </c>
       <c r="H41" s="82">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>-1.3908205841446364E-3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -8953,11 +8704,11 @@
         <v>1172</v>
       </c>
       <c r="H42" s="81">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" si="4"/>
-        <v>-1.7094017094017033E-3</v>
+        <v>-8.5397096498729397E-4</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
@@ -9018,15 +8769,16 @@
         <f t="shared" si="3"/>
         <v>1276</v>
       </c>
-      <c r="H44" s="91">
-        <v>948</v>
-      </c>
-      <c r="I44" s="89">
+      <c r="H44" s="89">
+        <v>1273</v>
+      </c>
+      <c r="I44" s="91">
         <f t="shared" si="4"/>
-        <v>-0.34599156118143459</v>
+        <v>-2.3566378633150808E-3</v>
       </c>
       <c r="J44" s="90"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="93"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
@@ -9042,220 +8794,876 @@
       <c r="Z44" s="83"/>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="83"/>
-      <c r="T45" s="83"/>
-      <c r="U45" s="83"/>
-      <c r="V45" s="83"/>
+      <c r="M45" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="T45" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="V45" s="94" t="s">
+        <v>27</v>
+      </c>
       <c r="W45" s="83"/>
       <c r="X45" s="83"/>
       <c r="Y45" s="83"/>
       <c r="Z45" s="83"/>
     </row>
     <row r="46" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
+      <c r="M46" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="94">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P46" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="Q46" s="94">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="R46" s="94">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S46" s="94">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="T46" s="94">
+        <v>101</v>
+      </c>
+      <c r="U46" s="94">
+        <v>0</v>
+      </c>
+      <c r="V46" s="94">
+        <v>0</v>
+      </c>
       <c r="W46" s="83"/>
       <c r="X46" s="83"/>
       <c r="Y46" s="83"/>
       <c r="Z46" s="83"/>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="83"/>
+      <c r="M47" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N47" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47" s="94">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P47" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="Q47" s="94">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="R47" s="94">
+        <v>0</v>
+      </c>
+      <c r="S47" s="94">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="T47" s="94">
+        <v>101</v>
+      </c>
+      <c r="U47" s="94">
+        <v>0</v>
+      </c>
+      <c r="V47" s="94">
+        <v>0</v>
+      </c>
       <c r="W47" s="83"/>
       <c r="X47" s="83"/>
       <c r="Y47" s="83"/>
       <c r="Z47" s="83"/>
     </row>
     <row r="48" spans="5:26" x14ac:dyDescent="0.35">
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="83"/>
-      <c r="V48" s="83"/>
+      <c r="M48" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="94">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P48" s="94">
+        <v>0.221</v>
+      </c>
+      <c r="Q48" s="94">
+        <v>2.532</v>
+      </c>
+      <c r="R48" s="94">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S48" s="94">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="T48" s="94">
+        <v>381</v>
+      </c>
+      <c r="U48" s="94">
+        <v>0</v>
+      </c>
+      <c r="V48" s="94">
+        <v>0</v>
+      </c>
       <c r="W48" s="83"/>
       <c r="X48" s="83"/>
       <c r="Y48" s="83"/>
       <c r="Z48" s="83"/>
     </row>
-    <row r="49" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="83"/>
+    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M49" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N49" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49" s="94">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P49" s="94">
+        <v>0.221</v>
+      </c>
+      <c r="Q49" s="94">
+        <v>2.532</v>
+      </c>
+      <c r="R49" s="94">
+        <v>0</v>
+      </c>
+      <c r="S49" s="94">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="T49" s="94">
+        <v>381</v>
+      </c>
+      <c r="U49" s="94">
+        <v>0</v>
+      </c>
+      <c r="V49" s="94">
+        <v>0</v>
+      </c>
       <c r="W49" s="83"/>
       <c r="X49" s="83"/>
       <c r="Y49" s="83"/>
       <c r="Z49" s="83"/>
     </row>
-    <row r="50" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="83"/>
+    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M50" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="94">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="P50" s="94">
+        <v>0.188</v>
+      </c>
+      <c r="Q50" s="94">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="R50" s="94">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="S50" s="94">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T50" s="94">
+        <v>133</v>
+      </c>
+      <c r="U50" s="94">
+        <v>0</v>
+      </c>
+      <c r="V50" s="94">
+        <v>0</v>
+      </c>
       <c r="W50" s="83"/>
       <c r="X50" s="83"/>
       <c r="Y50" s="83"/>
       <c r="Z50" s="83"/>
     </row>
-    <row r="51" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
-      <c r="V51" s="83"/>
+    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M51" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N51" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51" s="94">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="P51" s="94">
+        <v>0.188</v>
+      </c>
+      <c r="Q51" s="94">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="R51" s="94">
+        <v>0</v>
+      </c>
+      <c r="S51" s="94">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T51" s="94">
+        <v>133</v>
+      </c>
+      <c r="U51" s="94">
+        <v>0</v>
+      </c>
+      <c r="V51" s="94">
+        <v>0</v>
+      </c>
       <c r="W51" s="83"/>
       <c r="X51" s="83"/>
       <c r="Y51" s="83"/>
       <c r="Z51" s="83"/>
     </row>
-    <row r="52" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="83"/>
+    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M52" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="94">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P52" s="94">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q52" s="94">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="R52" s="94">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S52" s="94">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T52" s="94">
+        <v>133</v>
+      </c>
+      <c r="U52" s="94">
+        <v>0</v>
+      </c>
+      <c r="V52" s="94">
+        <v>0</v>
+      </c>
       <c r="W52" s="83"/>
       <c r="X52" s="83"/>
       <c r="Y52" s="83"/>
       <c r="Z52" s="83"/>
     </row>
-    <row r="53" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="83"/>
+    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M53" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N53" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="94">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P53" s="94">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q53" s="94">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="R53" s="94">
+        <v>0</v>
+      </c>
+      <c r="S53" s="94">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T53" s="94">
+        <v>133</v>
+      </c>
+      <c r="U53" s="94">
+        <v>0</v>
+      </c>
+      <c r="V53" s="94">
+        <v>0</v>
+      </c>
       <c r="W53" s="83"/>
       <c r="X53" s="83"/>
       <c r="Y53" s="83"/>
       <c r="Z53" s="83"/>
     </row>
-    <row r="54" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="83"/>
+    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M54" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="N54" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="94">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P54" s="94">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q54" s="94">
+        <v>2.948</v>
+      </c>
+      <c r="R54" s="94">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="S54" s="94">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T54" s="94">
+        <v>665</v>
+      </c>
+      <c r="U54" s="94">
+        <v>0</v>
+      </c>
+      <c r="V54" s="94">
+        <v>0</v>
+      </c>
       <c r="W54" s="83"/>
       <c r="X54" s="83"/>
       <c r="Y54" s="83"/>
       <c r="Z54" s="83"/>
     </row>
-    <row r="55" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
+    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M55" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N55" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O55" s="94">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P55" s="94">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q55" s="94">
+        <v>2.948</v>
+      </c>
+      <c r="R55" s="94">
+        <v>0</v>
+      </c>
+      <c r="S55" s="94">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T55" s="94">
+        <v>665</v>
+      </c>
+      <c r="U55" s="94">
+        <v>0</v>
+      </c>
+      <c r="V55" s="94">
+        <v>0</v>
+      </c>
       <c r="W55" s="83"/>
       <c r="X55" s="83"/>
       <c r="Y55" s="83"/>
       <c r="Z55" s="83"/>
     </row>
-    <row r="56" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-      <c r="T56" s="83"/>
-      <c r="U56" s="83"/>
-      <c r="V56" s="83"/>
+    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M56" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="94">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="P56" s="94">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q56" s="94">
+        <v>2.948</v>
+      </c>
+      <c r="R56" s="94">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="S56" s="94">
+        <v>0.315</v>
+      </c>
+      <c r="T56" s="94">
+        <v>530</v>
+      </c>
+      <c r="U56" s="94">
+        <v>0</v>
+      </c>
+      <c r="V56" s="94">
+        <v>0</v>
+      </c>
       <c r="W56" s="83"/>
       <c r="X56" s="83"/>
       <c r="Y56" s="83"/>
       <c r="Z56" s="83"/>
     </row>
-    <row r="57" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83"/>
-      <c r="T57" s="83"/>
-      <c r="U57" s="83"/>
-      <c r="V57" s="83"/>
+    <row r="57" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M57" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N57" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O57" s="94">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="P57" s="94">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Q57" s="94">
+        <v>2.948</v>
+      </c>
+      <c r="R57" s="94">
+        <v>0</v>
+      </c>
+      <c r="S57" s="94">
+        <v>0.315</v>
+      </c>
+      <c r="T57" s="94">
+        <v>530</v>
+      </c>
+      <c r="U57" s="94">
+        <v>0</v>
+      </c>
+      <c r="V57" s="94">
+        <v>0</v>
+      </c>
       <c r="W57" s="83"/>
       <c r="X57" s="83"/>
       <c r="Y57" s="83"/>
       <c r="Z57" s="83"/>
     </row>
-    <row r="58" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
+    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M58" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="94">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P58" s="94">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q58" s="94">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="R58" s="94">
+        <v>0.19</v>
+      </c>
+      <c r="S58" s="94">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T58" s="94">
+        <v>425</v>
+      </c>
+      <c r="U58" s="94">
+        <v>0</v>
+      </c>
+      <c r="V58" s="94">
+        <v>0</v>
+      </c>
       <c r="W58" s="83"/>
       <c r="X58" s="83"/>
       <c r="Y58" s="83"/>
       <c r="Z58" s="83"/>
     </row>
-    <row r="59" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="83"/>
-      <c r="T59" s="83"/>
-      <c r="U59" s="83"/>
-      <c r="V59" s="83"/>
+    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M59" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N59" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O59" s="94">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P59" s="94">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q59" s="94">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="R59" s="94">
+        <v>0</v>
+      </c>
+      <c r="S59" s="94">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="T59" s="94">
+        <v>425</v>
+      </c>
+      <c r="U59" s="94">
+        <v>0</v>
+      </c>
+      <c r="V59" s="94">
+        <v>0</v>
+      </c>
       <c r="W59" s="83"/>
       <c r="X59" s="83"/>
       <c r="Y59" s="83"/>
       <c r="Z59" s="83"/>
     </row>
-    <row r="60" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q60" s="83"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="83"/>
-      <c r="T60" s="83"/>
-      <c r="U60" s="83"/>
-      <c r="V60" s="83"/>
+    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M60" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="N60" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="94">
+        <v>0.03</v>
+      </c>
+      <c r="P60" s="94">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Q60" s="94">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="R60" s="94">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="S60" s="94">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T60" s="94">
+        <v>134</v>
+      </c>
+      <c r="U60" s="94">
+        <v>0</v>
+      </c>
+      <c r="V60" s="94">
+        <v>0</v>
+      </c>
       <c r="W60" s="83"/>
       <c r="X60" s="83"/>
       <c r="Y60" s="83"/>
       <c r="Z60" s="83"/>
     </row>
-    <row r="61" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="83"/>
-      <c r="U61" s="83"/>
-      <c r="V61" s="83"/>
+    <row r="61" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M61" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N61" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O61" s="94">
+        <v>0.03</v>
+      </c>
+      <c r="P61" s="94">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Q61" s="94">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="R61" s="94">
+        <v>0</v>
+      </c>
+      <c r="S61" s="94">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T61" s="94">
+        <v>134</v>
+      </c>
+      <c r="U61" s="94">
+        <v>0</v>
+      </c>
+      <c r="V61" s="94">
+        <v>0</v>
+      </c>
       <c r="W61" s="83"/>
       <c r="X61" s="83"/>
       <c r="Y61" s="83"/>
       <c r="Z61" s="83"/>
     </row>
-    <row r="62" spans="17:26" x14ac:dyDescent="0.35">
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
-      <c r="V62" s="83"/>
+    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M62" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="N62" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="94">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P62" s="94">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q62" s="94">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="R62" s="94">
+        <v>0.159</v>
+      </c>
+      <c r="S62" s="94">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="T62" s="94">
+        <v>240</v>
+      </c>
+      <c r="U62" s="94">
+        <v>0</v>
+      </c>
+      <c r="V62" s="94">
+        <v>0</v>
+      </c>
       <c r="W62" s="83"/>
       <c r="X62" s="83"/>
       <c r="Y62" s="83"/>
       <c r="Z62" s="83"/>
+    </row>
+    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M63" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N63" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O63" s="94">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P63" s="94">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Q63" s="94">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="R63" s="94">
+        <v>0</v>
+      </c>
+      <c r="S63" s="94">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="T63" s="94">
+        <v>240</v>
+      </c>
+      <c r="U63" s="94">
+        <v>0</v>
+      </c>
+      <c r="V63" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
+      <c r="M64" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="N64" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="94">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P64" s="94">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Q64" s="94">
+        <v>1.774</v>
+      </c>
+      <c r="R64" s="94">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="S64" s="94">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T64" s="94">
+        <v>380</v>
+      </c>
+      <c r="U64" s="94">
+        <v>0</v>
+      </c>
+      <c r="V64" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M65" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N65" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O65" s="94">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P65" s="94">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Q65" s="94">
+        <v>1.774</v>
+      </c>
+      <c r="R65" s="94">
+        <v>0</v>
+      </c>
+      <c r="S65" s="94">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T65" s="94">
+        <v>380</v>
+      </c>
+      <c r="U65" s="94">
+        <v>0</v>
+      </c>
+      <c r="V65" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M66" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="94">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P66" s="94">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q66" s="94">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R66" s="94">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S66" s="94">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T66" s="94">
+        <v>349</v>
+      </c>
+      <c r="U66" s="94">
+        <v>0</v>
+      </c>
+      <c r="V66" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M67" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N67" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O67" s="94">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P67" s="94">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q67" s="94">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R67" s="94">
+        <v>0</v>
+      </c>
+      <c r="S67" s="94">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T67" s="94">
+        <v>349</v>
+      </c>
+      <c r="U67" s="94">
+        <v>0</v>
+      </c>
+      <c r="V67" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M68" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="N68" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" s="94">
+        <v>0.108</v>
+      </c>
+      <c r="P68" s="94">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q68" s="94">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="R68" s="94">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="S68" s="94">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="T68" s="94">
+        <v>392</v>
+      </c>
+      <c r="U68" s="94">
+        <v>0</v>
+      </c>
+      <c r="V68" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M69" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="N69" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="O69" s="94">
+        <v>0.108</v>
+      </c>
+      <c r="P69" s="94">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q69" s="94">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="R69" s="94">
+        <v>0</v>
+      </c>
+      <c r="S69" s="94">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="T69" s="94">
+        <v>392</v>
+      </c>
+      <c r="U69" s="94">
+        <v>0</v>
+      </c>
+      <c r="V69" s="94">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
